--- a/all_tables.xlsx
+++ b/all_tables.xlsx
@@ -14,135 +14,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>2222222222</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>3333333333</t>
-  </si>
-  <si>
-    <t>Retention</t>
-  </si>
-  <si>
-    <t>4444444444</t>
-  </si>
-  <si>
-    <t>refusal</t>
-  </si>
-  <si>
-    <t>5555555555</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>6666666666</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>sur_name</t>
-  </si>
-  <si>
-    <t>registration_date</t>
-  </si>
-  <si>
-    <t>gender_id</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>Petr</t>
-  </si>
-  <si>
-    <t>Petrov</t>
-  </si>
-  <si>
-    <t>31.11.2019</t>
-  </si>
-  <si>
-    <t>Perm</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>11.06.2020</t>
-  </si>
-  <si>
-    <t>Oleg</t>
-  </si>
-  <si>
-    <t>Evgeny</t>
-  </si>
-  <si>
-    <t>Zhukov</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Petrova</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>group_customers</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>group_id</t>
-  </si>
-  <si>
-    <t>groups</t>
-  </si>
-  <si>
-    <t>branch_id</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>upgrade</t>
-  </si>
-  <si>
-    <t>vip</t>
-  </si>
-  <si>
-    <t>reinforced</t>
-  </si>
-  <si>
-    <t>bad</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+  <si>
+    <t>brands</t>
+  </si>
+  <si>
+    <t>brand_name</t>
+  </si>
+  <si>
+    <t>brand_creator_country</t>
+  </si>
+  <si>
+    <t>LADA</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Porsche</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>V123</t>
+  </si>
+  <si>
+    <t>M123</t>
+  </si>
+  <si>
+    <t>Best kolesa</t>
+  </si>
+  <si>
+    <t>2115</t>
+  </si>
+  <si>
+    <t>V124</t>
+  </si>
+  <si>
+    <t>Not best kolesa</t>
+  </si>
+  <si>
+    <t>Rio</t>
+  </si>
+  <si>
+    <t>V14234</t>
+  </si>
+  <si>
+    <t>A1234</t>
+  </si>
+  <si>
+    <t>Sportage</t>
+  </si>
+  <si>
+    <t>V12323</t>
+  </si>
+  <si>
+    <t>A123</t>
+  </si>
+  <si>
+    <t>THE best kolesa</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>E2312</t>
+  </si>
+  <si>
+    <t>R123</t>
+  </si>
+  <si>
+    <t>engines</t>
+  </si>
+  <si>
+    <t>engine_model</t>
+  </si>
+  <si>
+    <t>engine_power</t>
+  </si>
+  <si>
+    <t>engine_volume</t>
+  </si>
+  <si>
+    <t>engine_type</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V12</t>
+  </si>
+  <si>
+    <t>transmissions</t>
+  </si>
+  <si>
+    <t>transmission_model</t>
+  </si>
+  <si>
+    <t>transmission_type</t>
+  </si>
+  <si>
+    <t>transmission_gears_number</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>wheels</t>
+  </si>
+  <si>
+    <t>wheel_model</t>
+  </si>
+  <si>
+    <t>wheel_radius</t>
+  </si>
+  <si>
+    <t>wheel_color</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -505,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F37"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,359 +562,401 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="E12" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>150000</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>3</v>
+      <c r="A14" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>400000</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>4</v>
+      <c r="A15" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>80</v>
+      </c>
+      <c r="C20" s="2">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
+      <c r="B22" s="2">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2">
+        <v>90</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2">
+        <v>90</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2">
+        <v>300</v>
+      </c>
+      <c r="C24" s="2">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2">
-        <v>5</v>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>38</v>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>39</v>
+      <c r="A34" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>3</v>
-      </c>
-      <c r="B35" s="2">
-        <v>3</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>40</v>
+      <c r="A35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2">
-        <v>4</v>
+      <c r="A36" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B36" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2">
-        <v>5</v>
+      <c r="A37" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B37" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="2">
+        <v>15</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/all_tables.xlsx
+++ b/all_tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>brands</t>
   </si>
@@ -25,18 +25,18 @@
     <t>brand_creator_country</t>
   </si>
   <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
     <t>LADA</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Kia</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
     <t>Porsche</t>
   </si>
   <si>
@@ -85,6 +85,18 @@
     <t>Not best kolesa</t>
   </si>
   <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>E2312</t>
+  </si>
+  <si>
+    <t>R123</t>
+  </si>
+  <si>
+    <t>THE best kolesa</t>
+  </si>
+  <si>
     <t>Rio</t>
   </si>
   <si>
@@ -103,18 +115,6 @@
     <t>A123</t>
   </si>
   <si>
-    <t>THE best kolesa</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>E2312</t>
-  </si>
-  <si>
-    <t>R123</t>
-  </si>
-  <si>
     <t>engines</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>engine_type</t>
   </si>
   <si>
+    <t>V12</t>
+  </si>
+  <si>
     <t>L4</t>
   </si>
   <si>
     <t>V4</t>
   </si>
   <si>
-    <t>V12</t>
-  </si>
-  <si>
     <t>transmissions</t>
   </si>
   <si>
@@ -151,12 +151,12 @@
     <t>transmission_gears_number</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>wheels</t>
   </si>
   <si>
@@ -175,13 +175,7 @@
     <t>Black</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
     <t>Yellow</t>
-  </si>
-  <si>
-    <t>Blue</t>
   </si>
 </sst>
 </file>
@@ -544,7 +538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,192 +567,204 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>150000</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
-        <v>100000</v>
+        <v>3000000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2">
-        <v>150000</v>
+        <v>400000</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2">
+        <v>500000</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2">
-        <v>400000</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2">
-        <v>500000</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
+      <c r="B18" s="2">
+        <v>300</v>
+      </c>
+      <c r="C18" s="2">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>80</v>
+      </c>
+      <c r="C19" s="2">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -772,12 +778,12 @@
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
         <v>100</v>
@@ -786,51 +792,45 @@
         <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2">
-        <v>100</v>
-      </c>
-      <c r="C23" s="2">
-        <v>90</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2">
-        <v>300</v>
-      </c>
-      <c r="C24" s="2">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>40</v>
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -838,7 +838,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -846,117 +846,62 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5</v>
+      <c r="A31" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="2">
-        <v>8</v>
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="2">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>47</v>
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="2">
-        <v>13</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="2">
-        <v>13</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2">
         <v>15</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="2">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="2">
-        <v>20</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
